--- a/a.xlsx
+++ b/a.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JCU\DecisionModel_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JCU\DecisionModel_Excel\DecisionModel_A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6D7662-6A36-49E1-9C46-C83F6C76C2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6C817C-AA31-48FD-BC86-B566EC38AE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHL Hotel Pricing" sheetId="1" r:id="rId1"/>
     <sheet name="Pivot Table" sheetId="2" r:id="rId2"/>
     <sheet name="Jake" sheetId="3" r:id="rId3"/>
+    <sheet name="Annie" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
   <si>
     <t>Price</t>
   </si>
@@ -79,6 +80,18 @@
   </si>
   <si>
     <t>Comfort Present</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>afa</t>
+  </si>
+  <si>
+    <t>agas</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -2991,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93B9613-90FD-4CA0-9AF7-5645B3B713DA}">
   <dimension ref="C10:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3012,4 +3025,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CC1200-D90B-4391-AD20-4BC1639C419D}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="2">
+        <f>'Pivot Table'!C8+66</f>
+        <v>267.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>